--- a/output/below_50/tRNA-Glu-TTC-1-1.xlsx
+++ b/output/below_50/tRNA-Glu-TTC-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
   <si>
     <t>chr2</t>
   </si>
@@ -285,249 +285,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>131094754</t>
-  </si>
-  <si>
-    <t>131094777</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>131094757</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GCAGTTCCCATATGGTCTAG</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>54% (47)</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 94%, Moreno-Mateos: 54%</t>
-  </si>
-  <si>
-    <t>1.44404E+11</t>
-  </si>
-  <si>
-    <t>131094825</t>
-  </si>
-  <si>
-    <t>131094848</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>131094828</t>
-  </si>
-  <si>
-    <t>TGGTAGTTGGGAGGCGCTGG</t>
-  </si>
-  <si>
-    <t>92% (72)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 59%, Moreno-Mateos: 92%</t>
-  </si>
-  <si>
-    <t>3.45724E+11</t>
-  </si>
-  <si>
-    <t>131094955</t>
-  </si>
-  <si>
-    <t>131094978</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>131094958</t>
-  </si>
-  <si>
-    <t>TTCTGGCTTCTGTGGGGAAG</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 16%, Moreno-Mateos: 57%</t>
-  </si>
-  <si>
-    <t>2.07882E+11</t>
-  </si>
-  <si>
-    <t>131094995</t>
-  </si>
-  <si>
-    <t>131095018</t>
-  </si>
-  <si>
-    <t>131095015</t>
-  </si>
-  <si>
-    <t>CTCCCCAAGAGCTGGAGTTA</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 43%, Moreno-Mateos: 59%</t>
-  </si>
-  <si>
-    <t>131094998</t>
-  </si>
-  <si>
-    <t>131095021</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>131095001</t>
-  </si>
-  <si>
-    <t>CTGCCCTAACTCCAGCTCTT</t>
-  </si>
-  <si>
-    <t>13% (34)</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 13%, Moreno-Mateos: 52%</t>
-  </si>
-  <si>
-    <t>65191030869</t>
-  </si>
-  <si>
-    <t>131095002</t>
-  </si>
-  <si>
-    <t>131095025</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>131095022</t>
-  </si>
-  <si>
-    <t>AGAGCTGGAGTTAGGGCAGA</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 43, Doench 2016: 63%, Moreno-Mateos: 83%</t>
-  </si>
-  <si>
-    <t>2.45245E+11</t>
-  </si>
-  <si>
-    <t>131095008</t>
-  </si>
-  <si>
-    <t>131095031</t>
-  </si>
-  <si>
-    <t>131095028</t>
-  </si>
-  <si>
-    <t>GGAGTTAGGGCAGAAGGTCA</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>93% (73)</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 78%, Moreno-Mateos: 93%</t>
-  </si>
-  <si>
-    <t>9505770426</t>
-  </si>
-  <si>
-    <t>131095137</t>
-  </si>
-  <si>
-    <t>131095160</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>131095140</t>
-  </si>
-  <si>
-    <t>GTGCCTCCCACTGCTGGCTT</t>
-  </si>
-  <si>
-    <t>6% (27)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 6%, Moreno-Mateos: 76%</t>
-  </si>
-  <si>
-    <t>1.46507E+11</t>
-  </si>
-  <si>
-    <t>131095219</t>
-  </si>
-  <si>
-    <t>131095242</t>
-  </si>
-  <si>
-    <t>131095222</t>
-  </si>
-  <si>
-    <t>CCACAAATTCTTCCAGGAGG</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 75%, Moreno-Mateos: 69%</t>
-  </si>
-  <si>
-    <t>2.18461E+11</t>
   </si>
 </sst>
 </file>
@@ -572,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1286,537 +1043,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>99</v>
-      </c>
-      <c r="R13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R16" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" t="s">
-        <v>131</v>
-      </c>
-      <c r="O17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>132</v>
-      </c>
-      <c r="R17" t="s">
-        <v>133</v>
-      </c>
-      <c r="S17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>139</v>
-      </c>
-      <c r="L18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" t="s">
-        <v>140</v>
-      </c>
-      <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>141</v>
-      </c>
-      <c r="R18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O19" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>150</v>
-      </c>
-      <c r="R19" t="s">
-        <v>151</v>
-      </c>
-      <c r="S19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" t="s">
-        <v>158</v>
-      </c>
-      <c r="O20" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" t="s">
-        <v>160</v>
-      </c>
-      <c r="S20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N21" t="s">
-        <v>166</v>
-      </c>
-      <c r="O21" t="s">
-        <v>167</v>
-      </c>
-      <c r="P21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>169</v>
-      </c>
-      <c r="R21" t="s">
-        <v>170</v>
-      </c>
-      <c r="S21" t="s">
-        <v>171</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
